--- a/biology/Botanique/Cécile_Brünner/Cécile_Brünner.xlsx
+++ b/biology/Botanique/Cécile_Brünner/Cécile_Brünner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Br%C3%BCnner</t>
+          <t>Cécile_Brünner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Cécile Brünner' est un cultivar de rosier polyantha obtenu en France par Marie Ducher et présenté  par son gendre Joseph Pernet-Ducher en 1881[1]. Il est issu d'un croisement de Rosa multiflora et d'un hybride de thé, soit 'Souvenir d'un Ami', soit 'Madame de Tartas'[2]. Il doit son nom à la sœur ou à la fille d'Ulrich Brünner. 
+'Cécile Brünner' est un cultivar de rosier polyantha obtenu en France par Marie Ducher et présenté  par son gendre Joseph Pernet-Ducher en 1881. Il est issu d'un croisement de Rosa multiflora et d'un hybride de thé, soit 'Souvenir d'un Ami', soit 'Madame de Tartas'. Il doit son nom à la sœur ou à la fille d'Ulrich Brünner. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Br%C3%BCnner</t>
+          <t>Cécile_Brünner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">'Cécile Brünner' a de toutes petites fleurs doubles en forme de pompons de 2 à 6,5 cm de diamètre d'un rose pâle qui devient de plus en plus clair avec l'âge, le cœur étant d'un rose plus profond. Les fleurs peu parfumées fleurissent en bouquets abondants surtout en juin-juillet et timidement à l'automne.
 Son buisson, de 60 à 120 cm de hauteur et 60 cm de largeur en moyenne, est compact et vigoureux avec peu d'aiguillons, son feuillage est vert tendre. Il tolère la mi-ombre en climat chaud et une terre pauvre et il résiste bien aux maladies. Sa zone de rusticité est 5b (-26°).
-Il existe deux variétés de grimpants: 'Mademoiselle Cécile Brünner Climbing', découvert en 1894 par Franz P. Hosp en Californie, et 'Cécile Brünner Climbing'[3], lusus découvert en Australie par Richard Ardagh, en 1904. Une variété naine à la couleur blanche a été présentée par Fraque en 1909, 'White Cécile Brünner', et il existe plusieurs lusus au rose plus prononcé (dont 'Madame Jules Thibaud').
-Les variétés grimpantes sont très vigoureuses et dépassent les 6 mètres[4], atteignant parfois même 10 mètres. Début mars, il faut tailler les vieilles branches (2-3 ans), les rameaux de deux ans étant les plus florifères.
+Il existe deux variétés de grimpants: 'Mademoiselle Cécile Brünner Climbing', découvert en 1894 par Franz P. Hosp en Californie, et 'Cécile Brünner Climbing', lusus découvert en Australie par Richard Ardagh, en 1904. Une variété naine à la couleur blanche a été présentée par Fraque en 1909, 'White Cécile Brünner', et il existe plusieurs lusus au rose plus prononcé (dont 'Madame Jules Thibaud').
+Les variétés grimpantes sont très vigoureuses et dépassent les 6 mètres, atteignant parfois même 10 mètres. Début mars, il faut tailler les vieilles branches (2-3 ans), les rameaux de deux ans étant les plus florifères.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Br%C3%BCnner</t>
+          <t>Cécile_Brünner</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rose ancienne reconnue en 1988 dans le Old Rose Hall of Fame
 Son sport grimpant, 'Cécile Brünner Climbing', a remporté le Award Garden Merit de la Royal Horticultural Society en 1993 et sa forme originale en 1994.</t>
